--- a/descent/src/database/descent-bdd.xlsx
+++ b/descent/src/database/descent-bdd.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projets\workspace-defaut\descent\src\database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22035" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Dice" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1:P24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -177,126 +173,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -645,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,7 +776,7 @@
         <v>15</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F12" si="11">LEN(E10)</f>
+        <f t="shared" ref="F10" si="11">LEN(E10)</f>
         <v>7</v>
       </c>
       <c r="G10" t="s">
@@ -926,32 +803,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F5">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>F2&gt;F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J10">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>J8&gt;J$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>J2&gt;J$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>H2&gt;H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F11">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>F8&gt;F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H10">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>H8&gt;H$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -969,11 +846,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="36" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
